--- a/tspi/ciclo-1/task3/20106065.xlsx
+++ b/tspi/ciclo-1/task3/20106065.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>Planning Manager</t>
-  </si>
-  <si>
-    <t>Experimento RedMine #1.</t>
   </si>
   <si>
     <t>Crear el borrador #1 del diagrama de casos de uso.</t>
@@ -184,7 +181,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
@@ -207,21 +204,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F11" activeCellId="0" pane="topLeft" sqref="F11"/>
+      <selection activeCell="F6" activeCellId="0" pane="topLeft" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="39.8666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="19.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.68627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.68627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.0313725490196"/>
+    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -238,9 +235,9 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2" s="8">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="2" s="8">
       <c r="A2" s="6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -250,65 +247,24 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="9" t="n">
-        <f aca="false">112/60</f>
-        <v>1.86666666666667</v>
-      </c>
-      <c r="ALS2" s="0"/>
-      <c r="ALT2" s="0"/>
-      <c r="ALU2" s="0"/>
-      <c r="ALV2" s="0"/>
-      <c r="ALW2" s="0"/>
-      <c r="ALX2" s="0"/>
-      <c r="ALY2" s="0"/>
-      <c r="ALZ2" s="0"/>
-      <c r="AMA2" s="0"/>
-      <c r="AMB2" s="0"/>
-      <c r="AMC2" s="0"/>
-      <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
+        <f aca="false">75/60</f>
+        <v>1.25</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="3" s="8">
       <c r="A3" s="6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="9" t="n">
-        <f aca="false">75/60</f>
-        <v>1.25</v>
-      </c>
-      <c r="ALS3" s="0"/>
-      <c r="ALT3" s="0"/>
-      <c r="ALU3" s="0"/>
-      <c r="ALV3" s="0"/>
-      <c r="ALW3" s="0"/>
-      <c r="ALX3" s="0"/>
-      <c r="ALY3" s="0"/>
-      <c r="ALZ3" s="0"/>
-      <c r="AMA3" s="0"/>
-      <c r="AMB3" s="0"/>
-      <c r="AMC3" s="0"/>
-      <c r="AMD3" s="0"/>
-      <c r="AME3" s="0"/>
-      <c r="AMF3" s="0"/>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
+      <c r="F3" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="4" s="8">
       <c r="A4" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -316,91 +272,42 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
-      <c r="ALS4" s="0"/>
-      <c r="ALT4" s="0"/>
-      <c r="ALU4" s="0"/>
-      <c r="ALV4" s="0"/>
-      <c r="ALW4" s="0"/>
-      <c r="ALX4" s="0"/>
-      <c r="ALY4" s="0"/>
-      <c r="ALZ4" s="0"/>
-      <c r="AMA4" s="0"/>
-      <c r="AMB4" s="0"/>
-      <c r="AMC4" s="0"/>
-      <c r="AMD4" s="0"/>
-      <c r="AME4" s="0"/>
-      <c r="AMF4" s="0"/>
-      <c r="AMG4" s="0"/>
-      <c r="AMH4" s="0"/>
-      <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="5" s="8">
       <c r="A5" s="6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="ALS5" s="0"/>
-      <c r="ALT5" s="0"/>
-      <c r="ALU5" s="0"/>
-      <c r="ALV5" s="0"/>
-      <c r="ALW5" s="0"/>
-      <c r="ALX5" s="0"/>
-      <c r="ALY5" s="0"/>
-      <c r="ALZ5" s="0"/>
-      <c r="AMA5" s="0"/>
-      <c r="AMB5" s="0"/>
-      <c r="AMC5" s="0"/>
-      <c r="AMD5" s="0"/>
-      <c r="AME5" s="0"/>
-      <c r="AMF5" s="0"/>
-      <c r="AMG5" s="0"/>
-      <c r="AMH5" s="0"/>
-      <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="6" s="8">
-      <c r="A6" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="n">
+      <c r="F5" s="10" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="ALS6" s="0"/>
-      <c r="ALT6" s="0"/>
-      <c r="ALU6" s="0"/>
-      <c r="ALV6" s="0"/>
-      <c r="ALW6" s="0"/>
-      <c r="ALX6" s="0"/>
-      <c r="ALY6" s="0"/>
-      <c r="ALZ6" s="0"/>
-      <c r="AMA6" s="0"/>
-      <c r="AMB6" s="0"/>
-      <c r="AMC6" s="0"/>
-      <c r="AMD6" s="0"/>
-      <c r="AME6" s="0"/>
-      <c r="AMF6" s="0"/>
-      <c r="AMG6" s="0"/>
-      <c r="AMH6" s="0"/>
-      <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="7">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="6">
+      <c r="A6" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="n">
+        <f aca="false">30/60</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
       <c r="A7" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -410,15 +317,15 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="n">
-        <f aca="false">30/60</f>
-        <v>0.5</v>
+        <f aca="false">75/60</f>
+        <v>1.25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
       <c r="A8" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="n">
@@ -426,30 +333,14 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="n">
-        <f aca="false">75/60</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
-      <c r="A9" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="n">
         <f aca="false">44/60</f>
         <v>0.733333333333333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
